--- a/out/production/Week 2/Book1.xlsx
+++ b/out/production/Week 2/Book1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589A2D16-A76B-4718-88F1-546441F9240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869E0B01-7325-42C8-854A-2F0B7110C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{FC87E2D4-3933-46BA-BCE2-2D3C6D0B2836}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FC87E2D4-3933-46BA-BCE2-2D3C6D0B2836}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart2" sheetId="4" r:id="rId1"/>
     <sheet name="Chart3" sheetId="5" r:id="rId2"/>
     <sheet name="Chart1" sheetId="6" r:id="rId3"/>
-    <sheet name="Chart4" sheetId="7" r:id="rId4"/>
+    <sheet name="Chart4" sheetId="8" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -37,22 +37,22 @@
     <t>JavaHashmap search</t>
   </si>
   <si>
-    <t>JavaHashmap delet</t>
-  </si>
-  <si>
     <t>counter</t>
   </si>
   <si>
     <t>JavaHashmap insert</t>
   </si>
   <si>
-    <t>mYHashmap insert</t>
+    <t>JavaHashmap Delet</t>
   </si>
   <si>
-    <t>mYHashmap DELET</t>
+    <t>MyHashmap insert</t>
   </si>
   <si>
-    <t>mYHashmap search</t>
+    <t>MyHashmap search</t>
+  </si>
+  <si>
+    <t>MyHashmap DELET</t>
   </si>
 </sst>
 </file>
@@ -131,7 +131,7 @@
           <c:x val="4.8558476558568535E-2"/>
           <c:y val="7.5091827646350737E-2"/>
           <c:w val="0.77966241140226133"/>
-          <c:h val="0.88401507884798924"/>
+          <c:h val="0.81119451278667298"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -146,13 +146,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JavaHashmap delet</c:v>
+                  <c:v>JavaHashmap Delet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -311,13 +311,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mYHashmap DELET</c:v>
+                  <c:v>MyHashmap DELET</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -501,7 +501,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
@@ -686,7 +686,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent2"/>
                     </a:solidFill>
@@ -865,13 +865,13 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>mYHashmap insert</c:v>
+                        <c:v>MyHashmap insert</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent4"/>
                     </a:solidFill>
@@ -1050,13 +1050,13 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>mYHashmap search</c:v>
+                        <c:v>MyHashmap search</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent5"/>
                     </a:solidFill>
@@ -1225,9 +1225,7 @@
       <c:valAx>
         <c:axId val="847401248"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1253,9 +1251,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1285,6 +1283,7 @@
         <c:crossAx val="847402496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="847402496"/>
@@ -1316,9 +1315,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1401,7 +1400,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1424,6 +1423,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1443,7 +1443,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9204178853989346E-2"/>
+          <c:y val="0.11135213050820411"/>
+          <c:w val="0.78479163101418592"/>
+          <c:h val="0.8214351815023786"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1462,7 +1472,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1621,13 +1631,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mYHashmap search</c:v>
+                  <c:v>MyHashmap search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1791,7 +1801,6 @@
       <c:valAx>
         <c:axId val="852647232"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:min val="90"/>
         </c:scaling>
@@ -1819,9 +1828,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1851,6 +1860,7 @@
         <c:crossAx val="852645984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="852645984"/>
@@ -1881,9 +1891,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1922,6 +1932,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1935,7 +1976,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1958,6 +1999,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1976,6 +2018,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Insert</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1989,7 +2056,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2026,7 +2093,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2185,13 +2252,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mYHashmap insert</c:v>
+                  <c:v>MyHashmap insert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -2375,7 +2442,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent3"/>
                     </a:solidFill>
@@ -2544,7 +2611,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$M$1</c15:sqref>
@@ -2554,13 +2621,13 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>JavaHashmap delet</c:v>
+                        <c:v>JavaHashmap Delet</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent4"/>
                     </a:solidFill>
@@ -2573,7 +2640,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$20</c15:sqref>
@@ -2645,7 +2712,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$M$2:$M$20</c15:sqref>
@@ -2716,7 +2783,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-23EC-4150-8613-6D775E430420}"/>
                   </c:ext>
@@ -2729,7 +2796,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$O$1</c15:sqref>
@@ -2739,13 +2806,13 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>mYHashmap search</c:v>
+                        <c:v>MyHashmap search</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent6"/>
                     </a:solidFill>
@@ -2758,7 +2825,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$20</c15:sqref>
@@ -2830,7 +2897,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$O$2:$O$20</c15:sqref>
@@ -2901,7 +2968,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-23EC-4150-8613-6D775E430420}"/>
                   </c:ext>
@@ -2914,7 +2981,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$1</c15:sqref>
@@ -2924,13 +2991,13 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>mYHashmap DELET</c:v>
+                        <c:v>MyHashmap DELET</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1">
                         <a:lumMod val="60000"/>
@@ -2945,7 +3012,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$20</c15:sqref>
@@ -3017,7 +3084,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$2:$P$20</c15:sqref>
@@ -3088,7 +3155,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-23EC-4150-8613-6D775E430420}"/>
                   </c:ext>
@@ -3101,9 +3168,8 @@
       <c:valAx>
         <c:axId val="1378888544"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="90"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3129,9 +3195,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3161,6 +3227,7 @@
         <c:crossAx val="1378884384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1378884384"/>
@@ -3191,9 +3258,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3276,7 +3343,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3317,6 +3384,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All Maps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3330,7 +3422,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3348,7 +3440,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.186665276966188E-2"/>
+          <c:y val="0.12634441556710754"/>
+          <c:w val="0.78332412579732058"/>
+          <c:h val="0.82668873835405765"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -3367,7 +3469,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3380,66 +3482,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:f>Sheet1!$J$2:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3513,7 +3615,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1A4C-4652-83E4-16CD3D66C263}"/>
+              <c16:uniqueId val="{00000001-06B8-4915-B455-5782F345870B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3532,7 +3634,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -3545,66 +3647,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:f>Sheet1!$J$2:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3678,7 +3780,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1A4C-4652-83E4-16CD3D66C263}"/>
+              <c16:uniqueId val="{00000002-06B8-4915-B455-5782F345870B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3691,13 +3793,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JavaHashmap delet</c:v>
+                  <c:v>JavaHashmap Delet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -3710,66 +3812,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:f>Sheet1!$J$2:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3843,7 +3945,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1A4C-4652-83E4-16CD3D66C263}"/>
+              <c16:uniqueId val="{00000003-06B8-4915-B455-5782F345870B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3856,13 +3958,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mYHashmap insert</c:v>
+                  <c:v>MyHashmap insert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -3875,66 +3977,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:f>Sheet1!$J$2:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4008,7 +4110,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1A4C-4652-83E4-16CD3D66C263}"/>
+              <c16:uniqueId val="{00000004-06B8-4915-B455-5782F345870B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4021,13 +4123,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mYHashmap search</c:v>
+                  <c:v>MyHashmap search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -4040,66 +4142,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:f>Sheet1!$J$2:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4173,7 +4275,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1A4C-4652-83E4-16CD3D66C263}"/>
+              <c16:uniqueId val="{00000005-06B8-4915-B455-5782F345870B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4186,13 +4288,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mYHashmap DELET</c:v>
+                  <c:v>MyHashmap DELET</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -4207,66 +4309,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:f>Sheet1!$J$2:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4340,7 +4442,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1A4C-4652-83E4-16CD3D66C263}"/>
+              <c16:uniqueId val="{00000006-06B8-4915-B455-5782F345870B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4352,15 +4454,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1378904352"/>
-        <c:axId val="1378907680"/>
+        <c:axId val="1116771167"/>
+        <c:axId val="1116771583"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1378904352"/>
+        <c:axId val="1116771167"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4386,9 +4487,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4415,14 +4516,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1378907680"/>
+        <c:crossAx val="1116771583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1378907680"/>
+        <c:axId val="1116771583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4448,9 +4552,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4477,9 +4581,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1378904352"/>
+        <c:crossAx val="1116771167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4533,7 +4638,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -4720,7 +4825,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4731,7 +4836,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4747,25 +4852,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -4777,7 +4882,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4785,11 +4890,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4821,35 +4926,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4861,22 +4976,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4906,15 +5025,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4924,7 +5041,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4933,14 +5050,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4949,17 +5065,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4968,10 +5083,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -4987,21 +5102,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5020,17 +5129,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5039,17 +5147,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5058,17 +5165,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5089,7 +5195,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5097,7 +5203,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5110,6 +5216,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5117,10 +5234,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5141,7 +5258,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5150,14 +5267,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5171,27 +5287,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5208,9 +5323,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5223,20 +5338,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5247,7 +5356,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5263,25 +5372,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -5293,7 +5402,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5301,11 +5410,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5337,35 +5446,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5377,22 +5496,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5422,15 +5545,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5440,7 +5561,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5449,14 +5570,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5465,17 +5585,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5484,10 +5603,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -5503,21 +5622,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5536,17 +5649,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5555,17 +5667,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5574,17 +5685,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5605,7 +5715,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5613,7 +5723,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5626,6 +5736,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5633,10 +5754,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5657,7 +5778,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5666,14 +5787,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5687,27 +5807,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5724,9 +5843,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5739,20 +5858,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5763,7 +5876,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5779,25 +5892,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -5809,7 +5922,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5817,11 +5930,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5853,35 +5966,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5893,22 +6016,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5938,15 +6065,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5956,7 +6081,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5965,14 +6090,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5981,17 +6105,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6000,10 +6123,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -6019,21 +6142,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6052,17 +6169,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6071,17 +6187,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6090,17 +6205,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6121,7 +6235,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -6129,7 +6243,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6142,6 +6256,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6149,10 +6274,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -6173,7 +6298,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6182,14 +6307,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6203,27 +6327,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6240,9 +6363,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6255,20 +6378,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6279,7 +6396,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6295,25 +6412,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -6325,7 +6442,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6333,11 +6450,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6369,35 +6486,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6409,22 +6536,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -6454,15 +6585,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6472,7 +6601,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6481,14 +6610,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6497,17 +6625,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6516,10 +6643,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -6535,21 +6662,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6568,17 +6689,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6587,17 +6707,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6606,17 +6725,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6637,7 +6755,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -6645,7 +6763,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6658,6 +6776,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6665,10 +6794,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -6689,7 +6818,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6698,14 +6827,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6719,27 +6847,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6756,9 +6883,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6771,14 +6898,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6787,7 +6908,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CED2AAEA-D412-4037-A71D-CDCD2F213BD3}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6817,7 +6938,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{96BFD9D8-8DC9-45D7-9CB2-0DC60046CD5A}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9FB39C42-E80C-44C5-8489-C04023460918}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
@@ -6861,6 +6982,52 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43101</cdr:x>
+      <cdr:y>0.01068</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6186</cdr:x>
+      <cdr:y>0.06838</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0064679E-B03D-489C-9B30-D41233D114F6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3729507" y="67076"/>
+          <a:ext cx="1623275" cy="362219"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Delete</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -6893,7 +7060,56 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.45755</cdr:x>
+      <cdr:y>0.01302</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.74371</cdr:x>
+      <cdr:y>0.0564</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EB4CCE-FD32-4952-9FED-B26169685A0C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3959679" y="81643"/>
+          <a:ext cx="2476500" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Search</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -6926,7 +7142,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -6936,7 +7152,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85DF091-B38F-44D9-AC12-48F41BB23B8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A908016E-2FA9-4B20-81C7-DA7A0AA10671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7258,8 +7474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8160F0-C52A-4575-9D9E-94ABBE4D95C6}">
   <dimension ref="A1:P950"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7291,28 +7507,28 @@
         <v>494</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
       </c>
       <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
         <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
